--- a/excels/数据集.xlsx
+++ b/excels/数据集.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9D34D-7966-4F72-95A8-A4DCD2D6A986}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD5A79-C64F-4242-AB72-0B570B12F247}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="职业列表" sheetId="1" r:id="rId1"/>
     <sheet name="技艺" sheetId="2" r:id="rId2"/>
     <sheet name="科学" sheetId="3" r:id="rId3"/>
-    <sheet name="格斗" sheetId="4" r:id="rId4"/>
-    <sheet name="射击" sheetId="5" r:id="rId5"/>
-    <sheet name="武器列表" sheetId="6" r:id="rId6"/>
+    <sheet name="驾驶" sheetId="8" r:id="rId4"/>
+    <sheet name="生存" sheetId="9" r:id="rId5"/>
+    <sheet name="基本技能" sheetId="7" r:id="rId6"/>
+    <sheet name="格斗" sheetId="4" r:id="rId7"/>
+    <sheet name="射击" sheetId="5" r:id="rId8"/>
+    <sheet name="武器列表" sheetId="6" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="APP">[1]人物卡!$M$5</definedName>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="821">
   <si>
     <t>会计师</t>
   </si>
@@ -2194,9 +2198,6 @@
     <t>1x（技艺（表演）、技艺（演唱）、技艺（喜剧）），乔装，2x（魅惑、话术、恐吓、说服），聆听，心理学，EX2</t>
   </si>
   <si>
-    <t>1x（攀爬、游泳），射击，历史，跳跃，自然，导航，外语，生存</t>
-  </si>
-  <si>
     <t>技艺（耕作），汽车驾驶，1x（魅惑、话术、恐吓、说服），机械维修，自然，操作重型机械，追踪，EX1</t>
   </si>
   <si>
@@ -2204,9 +2205,6 @@
   </si>
   <si>
     <t>历史，外语，母语，聆听，2x（魅惑、话术、恐吓、说服），心理学，EX1</t>
-  </si>
-  <si>
-    <t>外语（拉丁文），图书馆，医学，说服，1x（科学（生物学）、科学（鉴证）、科学（制药）），侦查</t>
   </si>
   <si>
     <t>会计，技艺（表演），2x（魅惑、话术、恐吓、说服），聆听，心理学，妙手，侦查</t>
@@ -2362,10 +2360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1x（攀爬、游泳），闪避，格斗，射击，潜行，生存，2x（急救、机械维修、外语）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1x（技艺（表演）、乔装），射击，聆听，外语，1x（魅惑、话术、恐吓、说服），心理学，妙手，潜行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2391,6 +2385,163 @@
   </si>
   <si>
     <t>驯兽，会计，闪避，急救，自然，医学，1x（科学（制药），科学（动物学））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>估价</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>魅惑</t>
+  </si>
+  <si>
+    <t>攀爬</t>
+  </si>
+  <si>
+    <t>计算机使用 Ω</t>
+  </si>
+  <si>
+    <t>信用评级</t>
+  </si>
+  <si>
+    <t>克苏鲁神话</t>
+  </si>
+  <si>
+    <t>乔装</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>汽车驾驶</t>
+  </si>
+  <si>
+    <t>电子学 Ω</t>
+  </si>
+  <si>
+    <t>话术</t>
+  </si>
+  <si>
+    <t>急救</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>恐吓</t>
+  </si>
+  <si>
+    <t>跳跃</t>
+  </si>
+  <si>
+    <t>母语</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>图书馆使用</t>
+  </si>
+  <si>
+    <t>聆听</t>
+  </si>
+  <si>
+    <t>锁匠</t>
+  </si>
+  <si>
+    <t>机械维修</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>自然学</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>神秘学</t>
+  </si>
+  <si>
+    <t>操作重型机械</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
+    <t>精神分析</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>骑乘</t>
+  </si>
+  <si>
+    <t>妙手</t>
+  </si>
+  <si>
+    <t>侦查</t>
+  </si>
+  <si>
+    <t>潜行</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>追踪</t>
+  </si>
+  <si>
+    <t>驯兽</t>
+  </si>
+  <si>
+    <t>飞行器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外语（拉丁文），图书馆，医学，说服，1x（科学（生物学）、科学（司法科学）、科学（制药）），侦查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x（攀爬、游泳），闪避，格斗，射击，潜行，生存A，2x（急救、机械维修、外语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x（攀爬、游泳），射击，历史，跳跃，自然，导航，外语，生存A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2398,7 +2549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2413,29 +2564,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2443,79 +2581,110 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB4C7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC5E0B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFBED6EE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDot">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2576,6 +2745,39 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="人物卡"/>
+      <sheetName val="分支技能"/>
+      <sheetName val="职业列表"/>
+      <sheetName val="属性和掷骰"/>
+      <sheetName val="武器列表"/>
+      <sheetName val="疯狂表"/>
+      <sheetName val="信誉参照表"/>
+      <sheetName val="附表"/>
+      <sheetName val="疯狂附表"/>
+      <sheetName val="更新说明"/>
+      <sheetName val="职业"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2846,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E106" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2855,7 +3057,7 @@
     <col min="1" max="1" width="4.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.59765625" customWidth="1"/>
-    <col min="4" max="4" width="27.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="148.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2886,7 +3088,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -2906,7 +3108,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -2926,7 +3128,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -2946,7 +3148,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E5" t="s">
@@ -2983,7 +3185,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E7" t="s">
@@ -3071,7 +3273,7 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>654</v>
       </c>
       <c r="E12" t="s">
@@ -3091,7 +3293,7 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E13" t="s">
@@ -3111,7 +3313,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E14" t="s">
@@ -3148,7 +3350,7 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" t="s">
@@ -3168,7 +3370,7 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E17" t="s">
@@ -3205,7 +3407,7 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E19" t="s">
@@ -3225,7 +3427,7 @@
       <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -3313,7 +3515,7 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E25" t="s">
@@ -3333,7 +3535,7 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" t="s">
@@ -3353,7 +3555,7 @@
       <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E27" t="s">
@@ -3373,7 +3575,7 @@
       <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E28" t="s">
@@ -3393,7 +3595,7 @@
       <c r="C29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" t="s">
@@ -3413,7 +3615,7 @@
       <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="1">
         <v>4</v>
       </c>
       <c r="E30" t="s">
@@ -3433,7 +3635,7 @@
       <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" t="s">
@@ -3453,7 +3655,7 @@
       <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>656</v>
       </c>
       <c r="E32" t="s">
@@ -3473,7 +3675,7 @@
       <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="1">
         <v>5</v>
       </c>
       <c r="E33" t="s">
@@ -3493,7 +3695,7 @@
       <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" t="s">
@@ -3530,7 +3732,7 @@
       <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E36" t="s">
@@ -3550,7 +3752,7 @@
       <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E37" t="s">
@@ -3621,7 +3823,7 @@
       <c r="C41" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="1">
         <v>5</v>
       </c>
       <c r="E41" t="s">
@@ -3641,7 +3843,7 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" t="s">
@@ -3678,7 +3880,7 @@
       <c r="C44" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E44" t="s">
@@ -3698,7 +3900,7 @@
       <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" t="s">
@@ -3718,7 +3920,7 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E46" t="s">
@@ -3738,7 +3940,7 @@
       <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" t="s">
@@ -3775,7 +3977,7 @@
       <c r="C49" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="1">
         <v>5</v>
       </c>
       <c r="E49" t="s">
@@ -3812,7 +4014,7 @@
       <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="1">
         <v>5</v>
       </c>
       <c r="E51" t="s">
@@ -3832,11 +4034,11 @@
       <c r="C52" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E52" t="s">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="F52" t="s">
         <v>135</v>
@@ -3852,11 +4054,11 @@
       <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F53" t="s">
         <v>137</v>
@@ -3873,7 +4075,7 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F54" t="s">
         <v>139</v>
@@ -3889,7 +4091,7 @@
       <c r="C55" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E55" t="s">
@@ -3910,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F56" t="s">
         <v>143</v>
@@ -3927,7 +4129,7 @@
         <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
       <c r="F57" t="s">
         <v>146</v>
@@ -3943,11 +4145,11 @@
       <c r="C58" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E58" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F58" t="s">
         <v>149</v>
@@ -3963,11 +4165,11 @@
       <c r="C59" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="1">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F59" t="s">
         <v>152</v>
@@ -3983,11 +4185,11 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E60" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F60" t="s">
         <v>154</v>
@@ -4003,11 +4205,11 @@
       <c r="C61" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="1">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F61" t="s">
         <v>157</v>
@@ -4023,11 +4225,11 @@
       <c r="C62" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E62" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F62" t="s">
         <v>159</v>
@@ -4043,11 +4245,11 @@
       <c r="C63" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F63" t="s">
         <v>162</v>
@@ -4064,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F64" t="s">
         <v>164</v>
@@ -4081,7 +4283,7 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F65" t="s">
         <v>166</v>
@@ -4115,7 +4317,7 @@
         <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F67" t="s">
         <v>171</v>
@@ -4131,7 +4333,7 @@
       <c r="C68" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E68" t="s">
@@ -4151,11 +4353,11 @@
       <c r="C69" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E69" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F69" t="s">
         <v>175</v>
@@ -4171,11 +4373,11 @@
       <c r="C70" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E70" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F70" t="s">
         <v>177</v>
@@ -4192,7 +4394,7 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F71" t="s">
         <v>179</v>
@@ -4226,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F73" t="s">
         <v>184</v>
@@ -4242,11 +4444,11 @@
       <c r="C74" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E74" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F74" t="s">
         <v>187</v>
@@ -4262,11 +4464,11 @@
       <c r="C75" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="1">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F75" t="s">
         <v>190</v>
@@ -4282,11 +4484,11 @@
       <c r="C76" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E76" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F76" t="s">
         <v>192</v>
@@ -4319,11 +4521,11 @@
       <c r="C78" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="1" t="s">
         <v>659</v>
       </c>
       <c r="E78" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F78" t="s">
         <v>196</v>
@@ -4340,7 +4542,7 @@
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F79" t="s">
         <v>198</v>
@@ -4357,7 +4559,7 @@
         <v>200</v>
       </c>
       <c r="E80" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F80" t="s">
         <v>201</v>
@@ -4373,11 +4575,11 @@
       <c r="C81" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E81" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F81" t="s">
         <v>204</v>
@@ -4394,7 +4596,7 @@
         <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F82" t="s">
         <v>206</v>
@@ -4411,7 +4613,7 @@
         <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F83" t="s">
         <v>209</v>
@@ -4428,7 +4630,7 @@
         <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F84" t="s">
         <v>211</v>
@@ -4445,7 +4647,7 @@
         <v>124</v>
       </c>
       <c r="E85" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F85" t="s">
         <v>213</v>
@@ -4461,11 +4663,11 @@
       <c r="C86" t="s">
         <v>186</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F86" t="s">
         <v>215</v>
@@ -4482,7 +4684,7 @@
         <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F87" t="s">
         <v>217</v>
@@ -4498,11 +4700,11 @@
       <c r="C88" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E88" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F88" t="s">
         <v>219</v>
@@ -4518,11 +4720,11 @@
       <c r="C89" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E89" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F89" t="s">
         <v>221</v>
@@ -4538,11 +4740,11 @@
       <c r="C90" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E90" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F90" t="s">
         <v>223</v>
@@ -4559,7 +4761,7 @@
         <v>186</v>
       </c>
       <c r="E91" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F91" t="s">
         <v>225</v>
@@ -4575,11 +4777,11 @@
       <c r="C92" t="s">
         <v>227</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E92" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F92" t="s">
         <v>228</v>
@@ -4595,11 +4797,11 @@
       <c r="C93" t="s">
         <v>230</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="1">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F93" t="s">
         <v>231</v>
@@ -4616,7 +4818,7 @@
         <v>112</v>
       </c>
       <c r="E94" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F94" t="s">
         <v>233</v>
@@ -4633,7 +4835,7 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F95" t="s">
         <v>235</v>
@@ -4650,7 +4852,7 @@
         <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F96" t="s">
         <v>237</v>
@@ -4667,7 +4869,7 @@
         <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F97" t="s">
         <v>239</v>
@@ -4684,7 +4886,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F98" t="s">
         <v>241</v>
@@ -4700,11 +4902,11 @@
       <c r="C99" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="1">
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F99" t="s">
         <v>243</v>
@@ -4721,7 +4923,7 @@
         <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F100" t="s">
         <v>245</v>
@@ -4737,11 +4939,11 @@
       <c r="C101" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="1" t="s">
         <v>656</v>
       </c>
       <c r="E101" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F101" t="s">
         <v>247</v>
@@ -4757,11 +4959,11 @@
       <c r="C102" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E102" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F102" t="s">
         <v>249</v>
@@ -4777,11 +4979,11 @@
       <c r="C103" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E103" t="s">
-        <v>767</v>
+        <v>819</v>
       </c>
       <c r="F103" t="s">
         <v>251</v>
@@ -4797,11 +4999,11 @@
       <c r="C104" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E104" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F104" t="s">
         <v>253</v>
@@ -4818,7 +5020,7 @@
         <v>255</v>
       </c>
       <c r="E105" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F105" t="s">
         <v>256</v>
@@ -4834,11 +5036,11 @@
       <c r="C106" t="s">
         <v>258</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E106" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F106" t="s">
         <v>259</v>
@@ -4854,11 +5056,11 @@
       <c r="C107" t="s">
         <v>261</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E107" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F107" t="s">
         <v>262</v>
@@ -4875,7 +5077,7 @@
         <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F108" t="s">
         <v>264</v>
@@ -4892,7 +5094,7 @@
         <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F109" t="s">
         <v>266</v>
@@ -4908,11 +5110,11 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E110" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F110" t="s">
         <v>268</v>
@@ -4929,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F111" t="s">
         <v>270</v>
@@ -4946,7 +5148,7 @@
         <v>272</v>
       </c>
       <c r="E112" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F112" t="s">
         <v>273</v>
@@ -4962,11 +5164,11 @@
       <c r="C113" t="s">
         <v>189</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E113" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F113" t="s">
         <v>275</v>
@@ -4983,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F114" t="s">
         <v>277</v>
@@ -4998,316 +5200,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA3D0B-8A9A-4C40-BB04-EE81E7B9E286}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>278</v>
       </c>
       <c r="B1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>279</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>280</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>281</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>282</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>283</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>284</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>285</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>286</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>287</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>288</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>289</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>290</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>291</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>665</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>292</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>293</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>294</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>295</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>296</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>297</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>298</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>299</v>
       </c>
       <c r="B23">
         <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039DD937-C5AA-4985-A3D7-9ABC179D5C9D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>300</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>301</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>302</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>303</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>304</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>305</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>306</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>307</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>308</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>309</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>310</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>311</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>312</v>
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -5317,77 +5628,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D42B7-934B-4F8E-B27B-738B41B2B93E}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4F972-F6EA-4C11-BD3D-F0F3EDE3C31C}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>811</v>
       </c>
       <c r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>812</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -5397,69 +5666,735 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B4BEF3-2877-41BD-9863-67DCEDAB9BC1}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFFEFD3-DB71-46E6-86C9-B0E2923AE694}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1305</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F596-FED1-4199-A8C6-4C8C66DB7973}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>787</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>788</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>790</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>792</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>794</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>795</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>796</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>797</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>798</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>799</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>800</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>802</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>803</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>804</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>805</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>806</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>807</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>808</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>397</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>809</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>810</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D42B7-934B-4F8E-B27B-738B41B2B93E}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B4BEF3-2877-41BD-9863-67DCEDAB9BC1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="C1">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="C2">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="C3">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C4">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="C5">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="C6">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2107</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B822BF-10C1-4739-9266-FF1F6C0D7DBA}">
   <dimension ref="A1:J105"/>
   <sheetViews>
